--- a/Dokumente/Scrum.xlsx
+++ b/Dokumente/Scrum.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Desktop\5AHIFS\BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melanie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B77B2-FDD1-41F2-9B9E-DAC86FFCDB5F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="1215" windowWidth="15345" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -74,10 +75,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,13 +109,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -386,8 +414,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -395,41 +423,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="69.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>43367</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
@@ -437,16 +465,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>43374</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
@@ -454,16 +482,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>43381</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -471,14 +499,325 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43387</v>
+      <c r="A5" s="4">
+        <v>43388</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumente/Scrum.xlsx
+++ b/Dokumente/Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melanie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B77B2-FDD1-41F2-9B9E-DAC86FFCDB5F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CDB7D-B790-4605-916B-0E9524F3044D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1215" windowWidth="15345" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="15345" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Konzeptionelles Diagramm. Physisches Diagram zu 50%</t>
+  </si>
+  <si>
+    <t>Maljuric</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Datenbank</t>
+  </si>
+  <si>
+    <t>Grundstruktur der GUIs in Android und WPF, Webservice implementieren</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -135,6 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -417,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +518,19 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43395</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="3"/>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>

--- a/Dokumente/Scrum.xlsx
+++ b/Dokumente/Scrum.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melanie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CDB7D-B790-4605-916B-0E9524F3044D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="15345" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -79,12 +78,21 @@
   </si>
   <si>
     <t>Grundstruktur der GUIs in Android und WPF, Webservice implementieren</t>
+  </si>
+  <si>
+    <t>Bugelnig</t>
+  </si>
+  <si>
+    <t>Physisches Diagram Fertig</t>
+  </si>
+  <si>
+    <t>WPF mit WebService Verbinden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,11 +432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +541,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43402</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="3"/>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="3"/>

--- a/Dokumente/Scrum.xlsx
+++ b/Dokumente/Scrum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>WPF mit WebService Verbinden</t>
+  </si>
+  <si>
+    <t>05.11.218</t>
+  </si>
+  <si>
+    <t>WebService 100% fertig</t>
+  </si>
+  <si>
+    <t>admin app planen und anfach zu entwickeln</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,7 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +565,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3"/>
